--- a/data/trans_dic/P19C04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,36</t>
+          <t>9,4; 16,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 17,7</t>
+          <t>10,29; 17,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,28</t>
+          <t>6,38; 12,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,96</t>
+          <t>6,37; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,07</t>
+          <t>4,37; 10,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,35</t>
+          <t>7,03; 14,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,03</t>
+          <t>5,0; 11,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,56</t>
+          <t>3,23; 6,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,93</t>
+          <t>8,31; 13,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 15,02</t>
+          <t>9,66; 15,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,87</t>
+          <t>6,45; 10,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,35</t>
+          <t>5,42; 8,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 20,26</t>
+          <t>11,68; 20,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 18,54</t>
+          <t>11,13; 18,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,07</t>
+          <t>9,15; 16,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,41</t>
+          <t>7,67; 13,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,05</t>
+          <t>4,97; 11,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 15,27</t>
+          <t>7,38; 14,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 9,38</t>
+          <t>3,63; 9,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,32</t>
+          <t>4,03; 8,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,08</t>
+          <t>8,64; 13,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,52</t>
+          <t>10,19; 15,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,87</t>
+          <t>7,14; 11,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,17</t>
+          <t>6,66; 10,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 25,58</t>
+          <t>17,24; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,27</t>
+          <t>22,57; 30,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,95</t>
+          <t>14,83; 22,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 15,92</t>
+          <t>3,16; 15,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 20,11</t>
+          <t>8,53; 20,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 15,88</t>
+          <t>7,21; 15,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 23,96</t>
+          <t>9,7; 23,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,54</t>
+          <t>7,24; 14,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 22,68</t>
+          <t>15,96; 22,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,88</t>
+          <t>18,74; 24,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 21,18</t>
+          <t>14,49; 21,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 14,71</t>
+          <t>4,61; 14,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,41; 28,48</t>
+          <t>22,31; 28,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,42; 35,62</t>
+          <t>29,09; 35,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 23,97</t>
+          <t>18,27; 24,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 21,15</t>
+          <t>15,73; 20,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,2</t>
+          <t>13,01; 19,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,41</t>
+          <t>12,72; 18,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,22</t>
+          <t>10,15; 15,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,42</t>
+          <t>4,34; 11,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 23,71</t>
+          <t>19,27; 23,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,44</t>
+          <t>23,18; 27,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,37</t>
+          <t>15,63; 19,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 15,58</t>
+          <t>9,63; 15,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 29,49</t>
+          <t>19,14; 30,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,93; 38,28</t>
+          <t>28,62; 38,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,32; 31,9</t>
+          <t>23,35; 32,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 31,61</t>
+          <t>22,76; 31,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,87</t>
+          <t>16,45; 23,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,32</t>
+          <t>20,48; 27,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,61</t>
+          <t>12,57; 18,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,77</t>
+          <t>11,73; 19,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,66</t>
+          <t>18,52; 24,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 30,41</t>
+          <t>24,9; 30,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,33</t>
+          <t>18,19; 23,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,28</t>
+          <t>16,19; 22,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 14,94</t>
+          <t>6,05; 14,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,87</t>
+          <t>6,21; 14,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,61</t>
+          <t>6,15; 13,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 14,44</t>
+          <t>3,08; 13,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,45</t>
+          <t>13,95; 18,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,44</t>
+          <t>18,03; 23,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,64; 19,15</t>
+          <t>13,8; 19,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,41</t>
+          <t>11,29; 15,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 16,93</t>
+          <t>13,19; 17,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,81</t>
+          <t>16,26; 21,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,24</t>
+          <t>12,68; 17,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,85; 13,88</t>
+          <t>9,82; 13,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 21,69</t>
+          <t>18,32; 21,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,14; 26,46</t>
+          <t>23,13; 26,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,48; 19,53</t>
+          <t>16,35; 19,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,94</t>
+          <t>10,48; 15,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,5; 16,23</t>
+          <t>13,44; 16,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 18,94</t>
+          <t>16,23; 19,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,67</t>
+          <t>11,85; 14,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,68</t>
+          <t>8,52; 11,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 18,29</t>
+          <t>16,16; 18,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 22,08</t>
+          <t>19,86; 22,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,36; 16,4</t>
+          <t>14,42; 16,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 13,54</t>
+          <t>10,72; 13,44</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por la extracción de algún diente o muela</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>49664</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53369</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34834</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41913</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18879</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30872</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24443</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20881</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68543</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>84240</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59276</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62794</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36326; 64405</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40664; 69878</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24736; 47851</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31752; 55576</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11717; 28592</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20652; 43231</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15791; 34953</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14256; 28165</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54403; 87455</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66575; 103647</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45369; 76023</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50927; 78835</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46385</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39943</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45814</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25389</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33412</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20275</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21822</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71774</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89223</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60219</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>67636</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35075; 61374</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42710; 71588</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28967; 53260</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34416; 60008</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16585; 36986</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23140; 45412</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12100; 30847</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15223; 30999</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54733; 87890</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71082; 110843</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46433; 77608</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55028; 83481</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>91825</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>140090</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73274</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>62681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19149</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26695</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21713</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17211</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>110974</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>166786</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>94987</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>79892</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74183; 108159</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>120872; 162222</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60110; 89257</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20865; 105263</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11948; 28434</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17270; 37380</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13519; 32460</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11944; 23961</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>91020; 130367</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145293; 192056</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>78900; 115571</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38098; 120131</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>219913</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>315297</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>187603</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>182376</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>95136</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107731</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85133</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80423</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>315049</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>423028</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>272736</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>262799</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>194416; 247436</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>282939; 346259</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>160729; 214931</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>157032; 208535</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77578; 114070</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>88925; 130299</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69327; 105433</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41586; 108554</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>282812; 345011</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>387539; 459678</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>244165; 303418</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>188524; 304001</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>60479</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>134678</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117486</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>118644</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90735</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>86398</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>129762</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>151214</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>294817</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>203884</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>248406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47462; 75067</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>115422; 153519</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>99268; 136944</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>99877; 138203</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>75028; 109157</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>136952; 182829</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>70080; 103639</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95520; 154625</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>130395; 175838</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>266926; 326869</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>178706; 233363</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>202832; 277260</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20528</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20953</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22588</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16136</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>153275</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>193015</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>135382</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>98290</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>173803</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>213968</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>157970</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>114426</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12840; 31231</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13747; 31581</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14860; 32605</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7159; 31698</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>131956; 177667</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>166992; 216320</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>113885; 160723</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84022; 113867</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>152743; 198838</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>186616; 242580</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>135223; 182712</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>95874; 135936</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>488793</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>720197</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>475728</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>467564</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>402562</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>551865</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>373344</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>368389</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>891356</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1272062</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>849072</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>835953</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>448647; 528703</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>673432; 768474</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>434163; 514160</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>343308; 522622</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>368158; 440775</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>509779; 603101</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>338231; 410445</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>298379; 409136</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>838187; 944199</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1201974; 1338228</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>794422; 908645</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>726195; 911152</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
